--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2627,28 +2627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1186.977856229979</v>
+        <v>1299.040955862121</v>
       </c>
       <c r="AB2" t="n">
-        <v>1624.075468661084</v>
+        <v>1777.405145452815</v>
       </c>
       <c r="AC2" t="n">
-        <v>1469.075985336305</v>
+        <v>1607.772092974587</v>
       </c>
       <c r="AD2" t="n">
-        <v>1186977.856229979</v>
+        <v>1299040.955862121</v>
       </c>
       <c r="AE2" t="n">
-        <v>1624075.468661084</v>
+        <v>1777405.145452815</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.272392305947844e-06</v>
+        <v>1.834362708410693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.88671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1469075.985336305</v>
+        <v>1607772.092974587</v>
       </c>
     </row>
     <row r="3">
@@ -2733,28 +2733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>585.2224571580495</v>
+        <v>654.1188073213252</v>
       </c>
       <c r="AB3" t="n">
-        <v>800.7271840762974</v>
+        <v>894.9942098621437</v>
       </c>
       <c r="AC3" t="n">
-        <v>724.306905455716</v>
+        <v>809.5772186051628</v>
       </c>
       <c r="AD3" t="n">
-        <v>585222.4571580495</v>
+        <v>654118.8073213252</v>
       </c>
       <c r="AE3" t="n">
-        <v>800727.1840762973</v>
+        <v>894994.2098621437</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.993551549500907e-06</v>
+        <v>2.874032326826028e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.244140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>724306.905455716</v>
+        <v>809577.2186051628</v>
       </c>
     </row>
     <row r="4">
@@ -2839,28 +2839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.2525133362941</v>
+        <v>533.5154957040864</v>
       </c>
       <c r="AB4" t="n">
-        <v>647.5249671740816</v>
+        <v>729.9794382648413</v>
       </c>
       <c r="AC4" t="n">
-        <v>585.7260931139858</v>
+        <v>660.3112252094203</v>
       </c>
       <c r="AD4" t="n">
-        <v>473252.5133362941</v>
+        <v>533515.4957040865</v>
       </c>
       <c r="AE4" t="n">
-        <v>647524.9671740816</v>
+        <v>729979.4382648413</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.270288473101539e-06</v>
+        <v>3.272994101681421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>585726.0931139858</v>
+        <v>660311.2252094203</v>
       </c>
     </row>
     <row r="5">
@@ -2945,28 +2945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.2837266199796</v>
+        <v>463.99868204686</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.1047834357834</v>
+        <v>634.8634669536542</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.2674146307075</v>
+        <v>574.2729887040688</v>
       </c>
       <c r="AD5" t="n">
-        <v>412283.7266199796</v>
+        <v>463998.68204686</v>
       </c>
       <c r="AE5" t="n">
-        <v>564104.7834357833</v>
+        <v>634863.4669536542</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.449271159519356e-06</v>
+        <v>3.531027071451254e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.40885416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>510267.4146307075</v>
+        <v>574272.9887040688</v>
       </c>
     </row>
     <row r="6">
@@ -3051,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>394.6896100615891</v>
+        <v>446.4045654884694</v>
       </c>
       <c r="AB6" t="n">
-        <v>540.0317369629521</v>
+        <v>610.7904204808228</v>
       </c>
       <c r="AC6" t="n">
-        <v>488.4918659265103</v>
+        <v>552.4974399998715</v>
       </c>
       <c r="AD6" t="n">
-        <v>394689.610061589</v>
+        <v>446404.5654884694</v>
       </c>
       <c r="AE6" t="n">
-        <v>540031.7369629521</v>
+        <v>610790.4204808228</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.501649504370893e-06</v>
+        <v>3.60653906729939e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>488491.8659265103</v>
+        <v>552497.4399998715</v>
       </c>
     </row>
     <row r="7">
@@ -3157,28 +3157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>361.1222562087187</v>
+        <v>412.9224629816196</v>
       </c>
       <c r="AB7" t="n">
-        <v>494.1034025343187</v>
+        <v>564.9787307048388</v>
       </c>
       <c r="AC7" t="n">
-        <v>446.9468672749235</v>
+        <v>511.057953598997</v>
       </c>
       <c r="AD7" t="n">
-        <v>361122.2562087187</v>
+        <v>412922.4629816196</v>
       </c>
       <c r="AE7" t="n">
-        <v>494103.4025343187</v>
+        <v>564978.7307048388</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.57512857281681e-06</v>
+        <v>3.71247122546781e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.80338541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>446946.8672749235</v>
+        <v>511057.953598997</v>
       </c>
     </row>
     <row r="8">
@@ -3263,28 +3263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>356.7896211228759</v>
+        <v>408.589827895777</v>
       </c>
       <c r="AB8" t="n">
-        <v>488.1753000674989</v>
+        <v>559.0506282380188</v>
       </c>
       <c r="AC8" t="n">
-        <v>441.5845345873929</v>
+        <v>505.6956209114663</v>
       </c>
       <c r="AD8" t="n">
-        <v>356789.6211228759</v>
+        <v>408589.827895777</v>
       </c>
       <c r="AE8" t="n">
-        <v>488175.3000674989</v>
+        <v>559050.6282380188</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.587359523218862e-06</v>
+        <v>3.730104151414522e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.748046875</v>
       </c>
       <c r="AH8" t="n">
-        <v>441584.5345873929</v>
+        <v>505695.6209114663</v>
       </c>
     </row>
   </sheetData>
@@ -3560,28 +3560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>838.8772684554399</v>
+        <v>922.9662526594495</v>
       </c>
       <c r="AB2" t="n">
-        <v>1147.788887353878</v>
+        <v>1262.843145285967</v>
       </c>
       <c r="AC2" t="n">
-        <v>1038.245526876644</v>
+        <v>1142.319167911359</v>
       </c>
       <c r="AD2" t="n">
-        <v>838877.2684554399</v>
+        <v>922966.2526594496</v>
       </c>
       <c r="AE2" t="n">
-        <v>1147788.887353878</v>
+        <v>1262843.145285967</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.564980616583925e-06</v>
+        <v>2.291072749746818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.09114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1038245.526876644</v>
+        <v>1142319.167911359</v>
       </c>
     </row>
     <row r="3">
@@ -3666,28 +3666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>472.9054067054529</v>
+        <v>531.7421202444534</v>
       </c>
       <c r="AB3" t="n">
-        <v>647.0500405685008</v>
+        <v>727.5530277251678</v>
       </c>
       <c r="AC3" t="n">
-        <v>585.2964928370778</v>
+        <v>658.1163878861648</v>
       </c>
       <c r="AD3" t="n">
-        <v>472905.4067054529</v>
+        <v>531742.1202444534</v>
       </c>
       <c r="AE3" t="n">
-        <v>647050.0405685008</v>
+        <v>727553.0277251678</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.239343059649342e-06</v>
+        <v>3.27831399758563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.03971354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>585296.4928370778</v>
+        <v>658116.3878861648</v>
       </c>
     </row>
     <row r="4">
@@ -3772,28 +3772,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>387.7005881587048</v>
+        <v>446.5372121891544</v>
       </c>
       <c r="AB4" t="n">
-        <v>530.4690488615406</v>
+        <v>610.9719135486592</v>
       </c>
       <c r="AC4" t="n">
-        <v>479.8418273561805</v>
+        <v>552.6616116240409</v>
       </c>
       <c r="AD4" t="n">
-        <v>387700.5881587048</v>
+        <v>446537.2121891544</v>
       </c>
       <c r="AE4" t="n">
-        <v>530469.0488615406</v>
+        <v>610971.9135486593</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.490466283936092e-06</v>
+        <v>3.645948950948694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.62369791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>479841.8273561805</v>
+        <v>552661.6116240409</v>
       </c>
     </row>
     <row r="5">
@@ -3878,28 +3878,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>354.0028023020432</v>
+        <v>404.4220922860408</v>
       </c>
       <c r="AB5" t="n">
-        <v>484.3622516110663</v>
+        <v>553.3481485092595</v>
       </c>
       <c r="AC5" t="n">
-        <v>438.1353981239949</v>
+        <v>500.5373778445391</v>
       </c>
       <c r="AD5" t="n">
-        <v>354002.8023020432</v>
+        <v>404422.0922860408</v>
       </c>
       <c r="AE5" t="n">
-        <v>484362.2516110663</v>
+        <v>553348.1485092596</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.611874704293186e-06</v>
+        <v>3.823686311093837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.03776041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>438135.3981239949</v>
+        <v>500537.3778445391</v>
       </c>
     </row>
     <row r="6">
@@ -3984,28 +3984,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>330.2309728572287</v>
+        <v>380.7355141872469</v>
       </c>
       <c r="AB6" t="n">
-        <v>451.8365858255722</v>
+        <v>520.9391273764149</v>
       </c>
       <c r="AC6" t="n">
-        <v>408.7139362310099</v>
+        <v>471.2214282022663</v>
       </c>
       <c r="AD6" t="n">
-        <v>330230.9728572287</v>
+        <v>380735.5141872469</v>
       </c>
       <c r="AE6" t="n">
-        <v>451836.5858255722</v>
+        <v>520939.1273764149</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.663065207705485e-06</v>
+        <v>3.898627282356308e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.806640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>408713.9362310099</v>
+        <v>471221.4282022663</v>
       </c>
     </row>
   </sheetData>
@@ -4281,28 +4281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.0068220779904</v>
+        <v>400.974450242766</v>
       </c>
       <c r="AB2" t="n">
-        <v>463.8440898925613</v>
+        <v>548.6309325664186</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.5754609624834</v>
+        <v>496.2703663706288</v>
       </c>
       <c r="AD2" t="n">
-        <v>339006.8220779904</v>
+        <v>400974.450242766</v>
       </c>
       <c r="AE2" t="n">
-        <v>463844.0898925613</v>
+        <v>548630.9325664185</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.522706847566557e-06</v>
+        <v>3.902938878245541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>419575.4609624834</v>
+        <v>496270.3663706288</v>
       </c>
     </row>
     <row r="3">
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.1106822069073</v>
+        <v>335.3963624920146</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.6280371235205</v>
+        <v>458.9040998047939</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.9196770892915</v>
+        <v>415.1069365953729</v>
       </c>
       <c r="AD3" t="n">
-        <v>281110.6822069073</v>
+        <v>335396.3624920147</v>
       </c>
       <c r="AE3" t="n">
-        <v>384628.0371235205</v>
+        <v>458904.099804794</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.796133910935479e-06</v>
+        <v>4.325964295176755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.54557291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>347919.6770892915</v>
+        <v>415106.9365953729</v>
       </c>
     </row>
   </sheetData>
@@ -4684,28 +4684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>477.4299317550289</v>
+        <v>541.6016558489855</v>
       </c>
       <c r="AB2" t="n">
-        <v>653.2406953492881</v>
+        <v>741.0432793113006</v>
       </c>
       <c r="AC2" t="n">
-        <v>590.8963202142254</v>
+        <v>670.319148794604</v>
       </c>
       <c r="AD2" t="n">
-        <v>477429.9317550288</v>
+        <v>541601.6558489855</v>
       </c>
       <c r="AE2" t="n">
-        <v>653240.6953492881</v>
+        <v>741043.2793113006</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.131090361981952e-06</v>
+        <v>3.220704010262724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.74869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>590896.3202142254</v>
+        <v>670319.148794604</v>
       </c>
     </row>
     <row r="3">
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.6485216850091</v>
+        <v>363.6920634094561</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.8842327993997</v>
+        <v>497.6195261182598</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.665807774352</v>
+        <v>450.1274169589237</v>
       </c>
       <c r="AD3" t="n">
-        <v>315648.5216850091</v>
+        <v>363692.0634094561</v>
       </c>
       <c r="AE3" t="n">
-        <v>431884.2327993998</v>
+        <v>497619.5261182598</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.697552718589859e-06</v>
+        <v>4.076795153152239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.44140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>390665.807774352</v>
+        <v>450127.4169589237</v>
       </c>
     </row>
     <row r="4">
@@ -4896,28 +4896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>301.209029498578</v>
+        <v>349.2525712230249</v>
       </c>
       <c r="AB4" t="n">
-        <v>412.1274825644884</v>
+        <v>477.8627758833485</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.7946140530875</v>
+        <v>432.2562232376592</v>
       </c>
       <c r="AD4" t="n">
-        <v>301209.029498578</v>
+        <v>349252.5712230249</v>
       </c>
       <c r="AE4" t="n">
-        <v>412127.4825644884</v>
+        <v>477862.7758833485</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.76601485997822e-06</v>
+        <v>4.180261574498916e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>372794.6140530875</v>
+        <v>432256.2232376593</v>
       </c>
     </row>
   </sheetData>
@@ -5193,28 +5193,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.657735439479</v>
+        <v>320.010694770877</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.7988306724058</v>
+        <v>437.8527504609786</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.9331177100021</v>
+        <v>396.0646984871769</v>
       </c>
       <c r="AD2" t="n">
-        <v>274657.7354394791</v>
+        <v>320010.694770877</v>
       </c>
       <c r="AE2" t="n">
-        <v>375798.8306724058</v>
+        <v>437852.7504609786</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.777086981144606e-06</v>
+        <v>4.389152621835646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.12174479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>339933.1177100021</v>
+        <v>396064.6984871769</v>
       </c>
     </row>
     <row r="3">
@@ -5299,28 +5299,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.5420855578593</v>
+        <v>321.8950448892572</v>
       </c>
       <c r="AB3" t="n">
-        <v>378.3770816360337</v>
+        <v>440.4310014246065</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.2653040202594</v>
+        <v>398.3968847974342</v>
       </c>
       <c r="AD3" t="n">
-        <v>276542.0855578593</v>
+        <v>321895.0448892572</v>
       </c>
       <c r="AE3" t="n">
-        <v>378377.0816360337</v>
+        <v>440431.0014246065</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.775967639354543e-06</v>
+        <v>4.387383515579363e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>342265.3040202594</v>
+        <v>398396.8847974341</v>
       </c>
     </row>
   </sheetData>
@@ -5596,28 +5596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>908.1214557495811</v>
+        <v>1001.252124071853</v>
       </c>
       <c r="AB2" t="n">
-        <v>1242.531839247666</v>
+        <v>1369.957328281312</v>
       </c>
       <c r="AC2" t="n">
-        <v>1123.946344414257</v>
+        <v>1239.210523617329</v>
       </c>
       <c r="AD2" t="n">
-        <v>908121.4557495811</v>
+        <v>1001252.124071853</v>
       </c>
       <c r="AE2" t="n">
-        <v>1242531.839247666</v>
+        <v>1369957.328281312</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.487557038616391e-06</v>
+        <v>2.168689010568142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.947265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1123946.344414257</v>
+        <v>1239210.523617329</v>
       </c>
     </row>
     <row r="3">
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>497.5742285995856</v>
+        <v>556.8082558206472</v>
       </c>
       <c r="AB3" t="n">
-        <v>680.8030109956657</v>
+        <v>761.8496202603714</v>
       </c>
       <c r="AC3" t="n">
-        <v>615.8281271392659</v>
+        <v>689.1397617653786</v>
       </c>
       <c r="AD3" t="n">
-        <v>497574.2285995856</v>
+        <v>556808.2558206472</v>
       </c>
       <c r="AE3" t="n">
-        <v>680803.0109956657</v>
+        <v>761849.6202603714</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.174143914492806e-06</v>
+        <v>3.169654603052877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.33268229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>615828.1271392659</v>
+        <v>689139.7617653785</v>
       </c>
     </row>
     <row r="4">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.7932459134179</v>
+        <v>466.0271836259286</v>
       </c>
       <c r="AB4" t="n">
-        <v>556.592465510152</v>
+        <v>637.6389523053093</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.472061784294</v>
+        <v>576.7835856291802</v>
       </c>
       <c r="AD4" t="n">
-        <v>406793.2459134179</v>
+        <v>466027.1836259286</v>
       </c>
       <c r="AE4" t="n">
-        <v>556592.465510152</v>
+        <v>637638.9523053094</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.431817394188793e-06</v>
+        <v>3.545313236116994e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>503472.061784294</v>
+        <v>576783.5856291802</v>
       </c>
     </row>
     <row r="5">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.6518243742489</v>
+        <v>423.4116689428702</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.8786663470458</v>
+        <v>579.3305250521292</v>
       </c>
       <c r="AC5" t="n">
-        <v>461.2165620500858</v>
+        <v>524.040032836652</v>
       </c>
       <c r="AD5" t="n">
-        <v>372651.8243742489</v>
+        <v>423411.6689428702</v>
       </c>
       <c r="AE5" t="n">
-        <v>509878.6663470458</v>
+        <v>579330.5250521293</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.552422366111877e-06</v>
+        <v>3.721141571057851e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.20703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>461216.5620500857</v>
+        <v>524040.032836652</v>
       </c>
     </row>
     <row r="6">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>336.5941758515983</v>
+        <v>387.4392717662403</v>
       </c>
       <c r="AB6" t="n">
-        <v>460.5430008871721</v>
+        <v>530.1115042449049</v>
       </c>
       <c r="AC6" t="n">
-        <v>416.589423258661</v>
+        <v>479.5184062959396</v>
       </c>
       <c r="AD6" t="n">
-        <v>336594.1758515983</v>
+        <v>387439.2717662403</v>
       </c>
       <c r="AE6" t="n">
-        <v>460543.0008871721</v>
+        <v>530111.504244905</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.644024713834411e-06</v>
+        <v>3.854687377834359e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.78385416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>416589.4232586611</v>
+        <v>479518.4062959396</v>
       </c>
     </row>
     <row r="7">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>337.8573427028987</v>
+        <v>388.7024386175407</v>
       </c>
       <c r="AB7" t="n">
-        <v>462.2713215001099</v>
+        <v>531.8398248578426</v>
       </c>
       <c r="AC7" t="n">
-        <v>418.1527953780133</v>
+        <v>481.0817784152918</v>
       </c>
       <c r="AD7" t="n">
-        <v>337857.3427028987</v>
+        <v>388702.4386175407</v>
       </c>
       <c r="AE7" t="n">
-        <v>462271.3215001099</v>
+        <v>531839.8248578426</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.638760211091736e-06</v>
+        <v>3.847012331467893e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.806640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>418152.7953780133</v>
+        <v>481081.7784152917</v>
       </c>
     </row>
   </sheetData>
@@ -6423,28 +6423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.5290109062553</v>
+        <v>320.5765447735619</v>
       </c>
       <c r="AB2" t="n">
-        <v>367.4132393858051</v>
+        <v>438.6269713981923</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.3478354865434</v>
+        <v>396.7650288647689</v>
       </c>
       <c r="AD2" t="n">
-        <v>268529.0109062553</v>
+        <v>320576.5447735619</v>
       </c>
       <c r="AE2" t="n">
-        <v>367413.2393858052</v>
+        <v>438626.9713981923</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.732852807461764e-06</v>
+        <v>4.378672138332457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>332347.8354865434</v>
+        <v>396765.0288647689</v>
       </c>
     </row>
   </sheetData>
@@ -6720,28 +6720,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>636.4279520042527</v>
+        <v>710.5268674020087</v>
       </c>
       <c r="AB2" t="n">
-        <v>870.7888011518709</v>
+        <v>972.1742062125127</v>
       </c>
       <c r="AC2" t="n">
-        <v>787.6819401296941</v>
+        <v>879.3912644266579</v>
       </c>
       <c r="AD2" t="n">
-        <v>636427.9520042527</v>
+        <v>710526.8674020087</v>
       </c>
       <c r="AE2" t="n">
-        <v>870788.8011518709</v>
+        <v>972174.2062125127</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.823582330003792e-06</v>
+        <v>2.707733817111643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.763671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>787681.9401296941</v>
+        <v>879391.2644266579</v>
       </c>
     </row>
     <row r="3">
@@ -6826,28 +6826,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.7481447915367</v>
+        <v>452.2100423447548</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.1118267628365</v>
+        <v>618.7337300351553</v>
       </c>
       <c r="AC3" t="n">
-        <v>488.5643120683005</v>
+        <v>559.6826512388435</v>
       </c>
       <c r="AD3" t="n">
-        <v>394748.1447915367</v>
+        <v>452210.0423447548</v>
       </c>
       <c r="AE3" t="n">
-        <v>540111.8267628364</v>
+        <v>618733.7300351553</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.445839372814909e-06</v>
+        <v>3.631687953995632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.24544270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>488564.3120683005</v>
+        <v>559682.6512388434</v>
       </c>
     </row>
     <row r="4">
@@ -6932,28 +6932,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>329.3197838007171</v>
+        <v>378.633809386534</v>
       </c>
       <c r="AB4" t="n">
-        <v>450.5898567596288</v>
+        <v>518.0634821474074</v>
       </c>
       <c r="AC4" t="n">
-        <v>407.586193237325</v>
+        <v>468.620230517922</v>
       </c>
       <c r="AD4" t="n">
-        <v>329319.7838007171</v>
+        <v>378633.809386534</v>
       </c>
       <c r="AE4" t="n">
-        <v>450589.8567596289</v>
+        <v>518063.4821474074</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.68079041680612e-06</v>
+        <v>3.98055341332445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>407586.193237325</v>
+        <v>468620.230517922</v>
       </c>
     </row>
     <row r="5">
@@ -7038,28 +7038,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>311.1293421321869</v>
+        <v>368.5911501768541</v>
       </c>
       <c r="AB5" t="n">
-        <v>425.7008919630976</v>
+        <v>504.3226727658681</v>
       </c>
       <c r="AC5" t="n">
-        <v>385.0725963090932</v>
+        <v>456.1908246984096</v>
       </c>
       <c r="AD5" t="n">
-        <v>311129.3421321869</v>
+        <v>368591.150176854</v>
       </c>
       <c r="AE5" t="n">
-        <v>425700.8919630976</v>
+        <v>504322.6727658681</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.719202573934713e-06</v>
+        <v>4.037589443523909e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>385072.5963090932</v>
+        <v>456190.8246984096</v>
       </c>
     </row>
   </sheetData>
@@ -7335,28 +7335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>766.65105401069</v>
+        <v>850.0655230265648</v>
       </c>
       <c r="AB2" t="n">
-        <v>1048.965794354875</v>
+        <v>1163.097150849047</v>
       </c>
       <c r="AC2" t="n">
-        <v>948.8539711743838</v>
+        <v>1052.092791189117</v>
       </c>
       <c r="AD2" t="n">
-        <v>766651.0540106901</v>
+        <v>850065.5230265649</v>
       </c>
       <c r="AE2" t="n">
-        <v>1048965.794354875</v>
+        <v>1163097.150849047</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.646732680639286e-06</v>
+        <v>2.421425685403472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.27408854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>948853.9711743838</v>
+        <v>1052092.791189117</v>
       </c>
     </row>
     <row r="3">
@@ -7441,28 +7441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.4641624821962</v>
+        <v>499.9737053337232</v>
       </c>
       <c r="AB3" t="n">
-        <v>604.0307431324418</v>
+        <v>684.0860809207553</v>
       </c>
       <c r="AC3" t="n">
-        <v>546.3828967703532</v>
+        <v>618.7978654785223</v>
       </c>
       <c r="AD3" t="n">
-        <v>441464.1624821962</v>
+        <v>499973.7053337232</v>
       </c>
       <c r="AE3" t="n">
-        <v>604030.7431324418</v>
+        <v>684086.0809207553</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.302832165986066e-06</v>
+        <v>3.386182239200615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.78255208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>546382.8967703532</v>
+        <v>618797.8654785224</v>
       </c>
     </row>
     <row r="4">
@@ -7547,28 +7547,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.2676306510109</v>
+        <v>417.3334160348705</v>
       </c>
       <c r="AB4" t="n">
-        <v>502.511774961049</v>
+        <v>571.0139912698113</v>
       </c>
       <c r="AC4" t="n">
-        <v>454.5527564384714</v>
+        <v>516.5172173661899</v>
       </c>
       <c r="AD4" t="n">
-        <v>367267.6306510109</v>
+        <v>417333.4160348705</v>
       </c>
       <c r="AE4" t="n">
-        <v>502511.774961049</v>
+        <v>571013.9912698113</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.557023183715157e-06</v>
+        <v>3.759955509485822e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.412109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>454552.7564384714</v>
+        <v>516517.2173661899</v>
       </c>
     </row>
     <row r="5">
@@ -7653,28 +7653,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.0503558890533</v>
+        <v>385.389217031437</v>
       </c>
       <c r="AB5" t="n">
-        <v>447.4847253707971</v>
+        <v>527.3065289147152</v>
       </c>
       <c r="AC5" t="n">
-        <v>404.7774112301639</v>
+        <v>476.9811338744555</v>
       </c>
       <c r="AD5" t="n">
-        <v>327050.3558890533</v>
+        <v>385389.217031437</v>
       </c>
       <c r="AE5" t="n">
-        <v>447484.7253707971</v>
+        <v>527306.5289147152</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.669151941056336e-06</v>
+        <v>3.924834397413703e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.89127604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>404777.4112301639</v>
+        <v>476981.1338744555</v>
       </c>
     </row>
     <row r="6">
@@ -7759,28 +7759,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>324.9565645059792</v>
+        <v>375.1076012358594</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.6199076289186</v>
+        <v>513.2387685903301</v>
       </c>
       <c r="AC6" t="n">
-        <v>402.1860076727734</v>
+        <v>464.2559808512041</v>
       </c>
       <c r="AD6" t="n">
-        <v>324956.5645059792</v>
+        <v>375107.6012358594</v>
       </c>
       <c r="AE6" t="n">
-        <v>444619.9076289185</v>
+        <v>513238.7685903301</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.676659692634833e-06</v>
+        <v>3.93587411425757e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.85872395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>402186.0076727734</v>
+        <v>464255.9808512041</v>
       </c>
     </row>
   </sheetData>
@@ -8056,28 +8056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1085.592093713339</v>
+        <v>1188.490695358718</v>
       </c>
       <c r="AB2" t="n">
-        <v>1485.354995561651</v>
+        <v>1626.145401898777</v>
       </c>
       <c r="AC2" t="n">
-        <v>1343.594799494077</v>
+        <v>1470.948367050963</v>
       </c>
       <c r="AD2" t="n">
-        <v>1085592.093713339</v>
+        <v>1188490.695358718</v>
       </c>
       <c r="AE2" t="n">
-        <v>1485354.995561651</v>
+        <v>1626145.401898776</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.341289996419043e-06</v>
+        <v>1.940541490284462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.841796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1343594.799494077</v>
+        <v>1470948.367050963</v>
       </c>
     </row>
     <row r="3">
@@ -8162,28 +8162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>549.1995841246808</v>
+        <v>617.7702049367425</v>
       </c>
       <c r="AB3" t="n">
-        <v>751.4390999750453</v>
+        <v>845.260448492396</v>
       </c>
       <c r="AC3" t="n">
-        <v>679.722806924827</v>
+        <v>764.5899776187713</v>
       </c>
       <c r="AD3" t="n">
-        <v>549199.5841246807</v>
+        <v>617770.2049367425</v>
       </c>
       <c r="AE3" t="n">
-        <v>751439.0999750453</v>
+        <v>845260.448492396</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.051838654359247e-06</v>
+        <v>2.968543753240376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.931640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>679722.8069248269</v>
+        <v>764589.9776187713</v>
       </c>
     </row>
     <row r="4">
@@ -8268,28 +8268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>453.7616625476463</v>
+        <v>505.2537233061724</v>
       </c>
       <c r="AB4" t="n">
-        <v>620.8567252494038</v>
+        <v>691.3104344486134</v>
       </c>
       <c r="AC4" t="n">
-        <v>561.6030307694865</v>
+        <v>625.3327368451255</v>
       </c>
       <c r="AD4" t="n">
-        <v>453761.6625476463</v>
+        <v>505253.7233061724</v>
       </c>
       <c r="AE4" t="n">
-        <v>620856.7252494037</v>
+        <v>691310.4344486133</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.321941256781549e-06</v>
+        <v>3.35932077240375e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.193359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>561603.0307694866</v>
+        <v>625332.7368451256</v>
       </c>
     </row>
     <row r="5">
@@ -8374,28 +8374,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>400.8862265752454</v>
+        <v>452.2929464791999</v>
       </c>
       <c r="AB5" t="n">
-        <v>548.5102210523635</v>
+        <v>618.8471631293755</v>
       </c>
       <c r="AC5" t="n">
-        <v>496.1611753940555</v>
+        <v>559.7852584377556</v>
       </c>
       <c r="AD5" t="n">
-        <v>400886.2265752454</v>
+        <v>452292.9464791999</v>
       </c>
       <c r="AE5" t="n">
-        <v>548510.2210523635</v>
+        <v>618847.1631293755</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.476285601022865e-06</v>
+        <v>3.582621926211393e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.373046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>496161.1753940555</v>
+        <v>559785.2584377556</v>
       </c>
     </row>
     <row r="6">
@@ -8480,28 +8480,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>367.881875396519</v>
+        <v>427.7851601456801</v>
       </c>
       <c r="AB6" t="n">
-        <v>503.3522117204188</v>
+        <v>585.3145286606283</v>
       </c>
       <c r="AC6" t="n">
-        <v>455.3129830930874</v>
+        <v>529.4529315393577</v>
       </c>
       <c r="AD6" t="n">
-        <v>367881.875396519</v>
+        <v>427785.1601456801</v>
       </c>
       <c r="AE6" t="n">
-        <v>503352.2117204188</v>
+        <v>585314.5286606282</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.553928335168648e-06</v>
+        <v>3.694953299315847e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.99544270833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>455312.9830930874</v>
+        <v>529452.9315393576</v>
       </c>
     </row>
     <row r="7">
@@ -8586,28 +8586,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>349.4157176127657</v>
+        <v>400.9076888627409</v>
       </c>
       <c r="AB7" t="n">
-        <v>478.0859999713027</v>
+        <v>548.5395867009639</v>
       </c>
       <c r="AC7" t="n">
-        <v>432.458143131956</v>
+        <v>496.1877384263685</v>
       </c>
       <c r="AD7" t="n">
-        <v>349415.7176127657</v>
+        <v>400907.6888627409</v>
       </c>
       <c r="AE7" t="n">
-        <v>478085.9999713027</v>
+        <v>548539.5867009639</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.606537169577731e-06</v>
+        <v>3.771066314546623e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.75455729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>432458.143131956</v>
+        <v>496187.7384263685</v>
       </c>
     </row>
     <row r="8">
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>350.1859482342196</v>
+        <v>401.6779194841947</v>
       </c>
       <c r="AB8" t="n">
-        <v>479.1398634877527</v>
+        <v>549.593450217414</v>
       </c>
       <c r="AC8" t="n">
-        <v>433.4114273935028</v>
+        <v>497.1410226879153</v>
       </c>
       <c r="AD8" t="n">
-        <v>350185.9482342196</v>
+        <v>401677.9194841947</v>
       </c>
       <c r="AE8" t="n">
-        <v>479139.8634877527</v>
+        <v>549593.4502174139</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.606443057172706e-06</v>
+        <v>3.770930155306495e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.75455729166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>433411.4273935028</v>
+        <v>497141.0226879152</v>
       </c>
     </row>
   </sheetData>
@@ -8989,28 +8989,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>531.1617642892802</v>
+        <v>595.842986808851</v>
       </c>
       <c r="AB2" t="n">
-        <v>726.758959103802</v>
+        <v>815.2586612892242</v>
       </c>
       <c r="AC2" t="n">
-        <v>657.3981040595397</v>
+        <v>737.4515188784972</v>
       </c>
       <c r="AD2" t="n">
-        <v>531161.7642892802</v>
+        <v>595842.986808851</v>
       </c>
       <c r="AE2" t="n">
-        <v>726758.959103802</v>
+        <v>815258.6612892242</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.019199564730262e-06</v>
+        <v>3.032200919021223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.41276041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>657398.1040595397</v>
+        <v>737451.5188784972</v>
       </c>
     </row>
     <row r="3">
@@ -9095,28 +9095,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.6431126545922</v>
+        <v>396.2284364324132</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.7146907306271</v>
+        <v>542.1372270917417</v>
       </c>
       <c r="AC3" t="n">
-        <v>420.3629728784601</v>
+        <v>490.3964110324823</v>
       </c>
       <c r="AD3" t="n">
-        <v>339643.1126545923</v>
+        <v>396228.4364324132</v>
       </c>
       <c r="AE3" t="n">
-        <v>464714.690730627</v>
+        <v>542137.2270917417</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.608200647927345e-06</v>
+        <v>3.916694783308121e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>420362.9728784601</v>
+        <v>490396.4110324823</v>
       </c>
     </row>
     <row r="4">
@@ -9201,28 +9201,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>296.2822596150144</v>
+        <v>352.7822425382637</v>
       </c>
       <c r="AB4" t="n">
-        <v>405.3864586560495</v>
+        <v>482.6922278949666</v>
       </c>
       <c r="AC4" t="n">
-        <v>366.6969440053835</v>
+        <v>436.6247591274669</v>
       </c>
       <c r="AD4" t="n">
-        <v>296282.2596150144</v>
+        <v>352782.2425382637</v>
       </c>
       <c r="AE4" t="n">
-        <v>405386.4586560495</v>
+        <v>482692.2278949666</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.768763259543905e-06</v>
+        <v>4.157809186761956e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.96940104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>366696.9440053835</v>
+        <v>436624.7591274669</v>
       </c>
     </row>
   </sheetData>
@@ -9498,28 +9498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>386.9626578254568</v>
+        <v>449.7428529075286</v>
       </c>
       <c r="AB2" t="n">
-        <v>529.4593800244021</v>
+        <v>615.3580126024264</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.9285198957792</v>
+        <v>556.6291075400452</v>
       </c>
       <c r="AD2" t="n">
-        <v>386962.6578254568</v>
+        <v>449742.8529075286</v>
       </c>
       <c r="AE2" t="n">
-        <v>529459.3800244021</v>
+        <v>615358.0126024263</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.376965512592533e-06</v>
+        <v>3.645663127142785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.52473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>478928.5198957792</v>
+        <v>556629.1075400452</v>
       </c>
     </row>
     <row r="3">
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.1880630131778</v>
+        <v>334.2519636196399</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.9433776577785</v>
+        <v>457.3382827802957</v>
       </c>
       <c r="AC3" t="n">
-        <v>355.4414131936136</v>
+        <v>413.6905589500548</v>
       </c>
       <c r="AD3" t="n">
-        <v>287188.0630131778</v>
+        <v>334251.9636196399</v>
       </c>
       <c r="AE3" t="n">
-        <v>392943.3776577784</v>
+        <v>457338.2827802957</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793454160100604e-06</v>
+        <v>4.284451236204436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.36002604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>355441.4131936136</v>
+        <v>413690.5589500548</v>
       </c>
     </row>
   </sheetData>
@@ -16850,28 +16850,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.5733850394304</v>
+        <v>353.0806134694781</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.889521655942</v>
+        <v>483.1004721662506</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.7702409926548</v>
+        <v>436.994041138474</v>
       </c>
       <c r="AD2" t="n">
-        <v>299573.3850394304</v>
+        <v>353080.6134694781</v>
       </c>
       <c r="AE2" t="n">
-        <v>409889.521655942</v>
+        <v>483100.4721662506</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.686732842175507e-06</v>
+        <v>4.197967069111781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.291015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>370770.2409926548</v>
+        <v>436994.041138474</v>
       </c>
     </row>
     <row r="3">
@@ -16956,28 +16956,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.0039279457782</v>
+        <v>328.5964077218465</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.2725065324598</v>
+        <v>449.6001016954178</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.3615866107808</v>
+        <v>406.6908990073123</v>
       </c>
       <c r="AD3" t="n">
-        <v>275003.9279457782</v>
+        <v>328596.4077218465</v>
       </c>
       <c r="AE3" t="n">
-        <v>376272.5065324598</v>
+        <v>449600.1016954178</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793043599007883e-06</v>
+        <v>4.364075529643828e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.78645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>340361.5866107808</v>
+        <v>406690.8990073123</v>
       </c>
     </row>
   </sheetData>
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.7054521141189</v>
+        <v>328.9541605328649</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.3911422642137</v>
+        <v>450.0895948743933</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.0415314937495</v>
+        <v>407.1336756442944</v>
       </c>
       <c r="AD2" t="n">
-        <v>270705.4521141189</v>
+        <v>328954.1605328649</v>
       </c>
       <c r="AE2" t="n">
-        <v>370391.1422642136</v>
+        <v>450089.5948743933</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.630865548229135e-06</v>
+        <v>4.287458793332558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.5703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>335041.5314937495</v>
+        <v>407133.6756442944</v>
       </c>
     </row>
   </sheetData>
@@ -17550,28 +17550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>699.426616863846</v>
+        <v>782.3132324014863</v>
       </c>
       <c r="AB2" t="n">
-        <v>956.9863537177065</v>
+        <v>1070.395477795706</v>
       </c>
       <c r="AC2" t="n">
-        <v>865.6529192576711</v>
+        <v>968.2384357043721</v>
       </c>
       <c r="AD2" t="n">
-        <v>699426.616863846</v>
+        <v>782313.2324014863</v>
       </c>
       <c r="AE2" t="n">
-        <v>956986.3537177065</v>
+        <v>1070395.477795707</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.732400880648582e-06</v>
+        <v>2.559415807234255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.50260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>865652.9192576711</v>
+        <v>968238.4357043721</v>
       </c>
     </row>
     <row r="3">
@@ -17656,28 +17656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.3464995984308</v>
+        <v>475.2562768723869</v>
       </c>
       <c r="AB3" t="n">
-        <v>571.0318927786806</v>
+        <v>650.2666048439719</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.5334103801777</v>
+        <v>588.2060727325744</v>
       </c>
       <c r="AD3" t="n">
-        <v>417346.4995984308</v>
+        <v>475256.2768723869</v>
       </c>
       <c r="AE3" t="n">
-        <v>571031.8927786805</v>
+        <v>650266.6048439719</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.375059370138842e-06</v>
+        <v>3.508867123628681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.49609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>516533.4103801776</v>
+        <v>588206.0727325744</v>
       </c>
     </row>
     <row r="4">
@@ -17762,28 +17762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>344.2929569985288</v>
+        <v>393.9908794878354</v>
       </c>
       <c r="AB4" t="n">
-        <v>471.0768128986556</v>
+        <v>539.0757029661249</v>
       </c>
       <c r="AC4" t="n">
-        <v>426.1179030360665</v>
+        <v>487.6270744725382</v>
       </c>
       <c r="AD4" t="n">
-        <v>344292.9569985288</v>
+        <v>393990.8794878354</v>
       </c>
       <c r="AE4" t="n">
-        <v>471076.8128986556</v>
+        <v>539075.702966125</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.638385879623511e-06</v>
+        <v>3.897900654128022e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>426117.9030360666</v>
+        <v>487627.0744725382</v>
       </c>
     </row>
     <row r="5">
@@ -17868,28 +17868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>317.7082063887642</v>
+        <v>375.6178941541694</v>
       </c>
       <c r="AB5" t="n">
-        <v>434.7023842779535</v>
+        <v>513.9369738736966</v>
       </c>
       <c r="AC5" t="n">
-        <v>393.214998831093</v>
+        <v>464.8875504022632</v>
       </c>
       <c r="AD5" t="n">
-        <v>317708.2063887642</v>
+        <v>375617.8941541694</v>
       </c>
       <c r="AE5" t="n">
-        <v>434702.3842779535</v>
+        <v>513936.9738736966</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.697865764338822e-06</v>
+        <v>3.985775094076265e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.88151041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>393214.998831093</v>
+        <v>464887.5504022632</v>
       </c>
     </row>
   </sheetData>
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>991.9628621269676</v>
+        <v>1094.139974506304</v>
       </c>
       <c r="AB2" t="n">
-        <v>1357.247350275005</v>
+        <v>1497.050583168472</v>
       </c>
       <c r="AC2" t="n">
-        <v>1227.713568073378</v>
+        <v>1354.174176634562</v>
       </c>
       <c r="AD2" t="n">
-        <v>991962.8621269676</v>
+        <v>1094139.974506304</v>
       </c>
       <c r="AE2" t="n">
-        <v>1357247.350275005</v>
+        <v>1497050.583168472</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.413843803390225e-06</v>
+        <v>2.053140164222083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1227713.568073378</v>
+        <v>1354174.176634562</v>
       </c>
     </row>
     <row r="3">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>523.1265701284649</v>
+        <v>591.2730919995464</v>
       </c>
       <c r="AB3" t="n">
-        <v>715.7648519652265</v>
+        <v>809.0059296016032</v>
       </c>
       <c r="AC3" t="n">
-        <v>647.4532590759437</v>
+        <v>731.7955391273789</v>
       </c>
       <c r="AD3" t="n">
-        <v>523126.5701284648</v>
+        <v>591273.0919995464</v>
       </c>
       <c r="AE3" t="n">
-        <v>715764.8519652265</v>
+        <v>809005.9296016032</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.111703212084212e-06</v>
+        <v>3.066549974792537e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.62890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>647453.2590759437</v>
+        <v>731795.539127379</v>
       </c>
     </row>
     <row r="4">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.4629286412076</v>
+        <v>485.0804676715826</v>
       </c>
       <c r="AB4" t="n">
-        <v>582.1371490665858</v>
+        <v>663.7084961081407</v>
       </c>
       <c r="AC4" t="n">
-        <v>526.5787965942902</v>
+        <v>600.3650887603038</v>
       </c>
       <c r="AD4" t="n">
-        <v>425462.9286412076</v>
+        <v>485080.4676715826</v>
       </c>
       <c r="AE4" t="n">
-        <v>582137.1490665858</v>
+        <v>663708.4961081407</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.377030232305642e-06</v>
+        <v>3.451849652567216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>526578.7965942902</v>
+        <v>600365.0887603038</v>
       </c>
     </row>
     <row r="5">
@@ -18483,28 +18483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>403.126500772115</v>
+        <v>462.7440398024899</v>
       </c>
       <c r="AB5" t="n">
-        <v>551.5754630424427</v>
+        <v>633.1468100839975</v>
       </c>
       <c r="AC5" t="n">
-        <v>498.9338749906956</v>
+        <v>572.7201671567092</v>
       </c>
       <c r="AD5" t="n">
-        <v>403126.500772115</v>
+        <v>462744.0398024899</v>
       </c>
       <c r="AE5" t="n">
-        <v>551575.4630424427</v>
+        <v>633146.8100839974</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.452282137540117e-06</v>
+        <v>3.561128137715757e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.59765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>498933.8749906956</v>
+        <v>572720.1671567091</v>
       </c>
     </row>
     <row r="6">
@@ -18589,28 +18589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>350.8354019495725</v>
+        <v>402.0092989938125</v>
       </c>
       <c r="AB6" t="n">
-        <v>480.0284747129744</v>
+        <v>550.0468582819051</v>
       </c>
       <c r="AC6" t="n">
-        <v>434.215230810563</v>
+        <v>497.5511581230936</v>
       </c>
       <c r="AD6" t="n">
-        <v>350835.4019495726</v>
+        <v>402009.2989938125</v>
       </c>
       <c r="AE6" t="n">
-        <v>480028.4747129744</v>
+        <v>550046.8582819051</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.602026786291696e-06</v>
+        <v>3.77858267688902e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.87174479166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>434215.230810563</v>
+        <v>497551.1581230936</v>
       </c>
     </row>
     <row r="7">
@@ -18695,28 +18695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>343.2847072929184</v>
+        <v>394.4586043371582</v>
       </c>
       <c r="AB7" t="n">
-        <v>469.6972811706019</v>
+        <v>539.7156647395326</v>
       </c>
       <c r="AC7" t="n">
-        <v>424.8700318799533</v>
+        <v>488.2059591924838</v>
       </c>
       <c r="AD7" t="n">
-        <v>343284.7072929184</v>
+        <v>394458.6043371583</v>
       </c>
       <c r="AE7" t="n">
-        <v>469697.2811706019</v>
+        <v>539715.6647395326</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.624516952168834e-06</v>
+        <v>3.811242198932152e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>424870.0318799533</v>
+        <v>488205.9591924838</v>
       </c>
     </row>
   </sheetData>
@@ -18992,28 +18992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.134976316736</v>
+        <v>346.0906111945143</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.0295215132549</v>
+        <v>473.5364426765089</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.1874057758654</v>
+        <v>428.3427892000336</v>
       </c>
       <c r="AD2" t="n">
-        <v>282134.976316736</v>
+        <v>346090.6111945143</v>
       </c>
       <c r="AE2" t="n">
-        <v>386029.5215132549</v>
+        <v>473536.4426765089</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.395896722680034e-06</v>
+        <v>3.993817091476631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.56575520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>349187.4057758654</v>
+        <v>428342.7892000336</v>
       </c>
     </row>
   </sheetData>
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.778313421358</v>
+        <v>490.3761897606203</v>
       </c>
       <c r="AB2" t="n">
-        <v>594.8828694885595</v>
+        <v>670.9543367011316</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.1080833479217</v>
+        <v>606.919396496701</v>
       </c>
       <c r="AD2" t="n">
-        <v>434778.313421358</v>
+        <v>490376.1897606202</v>
       </c>
       <c r="AE2" t="n">
-        <v>594882.8694885595</v>
+        <v>670954.3367011317</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.250871424485535e-06</v>
+        <v>3.425616125569012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.11393229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>538108.0833479217</v>
+        <v>606919.3964967009</v>
       </c>
     </row>
     <row r="3">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.3462639366703</v>
+        <v>342.916258445545</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.105788075724</v>
+        <v>469.1931532028094</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.5384988278119</v>
+        <v>424.414017177859</v>
       </c>
       <c r="AD3" t="n">
-        <v>295346.2639366703</v>
+        <v>342916.258445545</v>
       </c>
       <c r="AE3" t="n">
-        <v>404105.788075724</v>
+        <v>469193.1532028094</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774162190256027e-06</v>
+        <v>4.222015807081017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.26236979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>365538.4988278119</v>
+        <v>424414.017177859</v>
       </c>
     </row>
     <row r="4">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.998975522413</v>
+        <v>342.5689700312876</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.6306127460537</v>
+        <v>468.7179778731391</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.1086735646925</v>
+        <v>423.9841919147396</v>
       </c>
       <c r="AD4" t="n">
-        <v>294998.975522413</v>
+        <v>342568.9700312876</v>
       </c>
       <c r="AE4" t="n">
-        <v>403630.6127460537</v>
+        <v>468717.9778731391</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.780537412287583e-06</v>
+        <v>4.231718299705789e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.236328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>365108.6735646925</v>
+        <v>423984.1919147396</v>
       </c>
     </row>
   </sheetData>
@@ -19798,28 +19798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>586.2266180594917</v>
+        <v>651.5564767922922</v>
       </c>
       <c r="AB2" t="n">
-        <v>802.1011213221029</v>
+        <v>891.4883161902759</v>
       </c>
       <c r="AC2" t="n">
-        <v>725.5497160591149</v>
+        <v>806.4059225047855</v>
       </c>
       <c r="AD2" t="n">
-        <v>586226.6180594916</v>
+        <v>651556.4767922922</v>
       </c>
       <c r="AE2" t="n">
-        <v>802101.121322103</v>
+        <v>891488.3161902759</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.918367907310308e-06</v>
+        <v>2.863951963890921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.07356770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>725549.7160591149</v>
+        <v>806405.9225047855</v>
       </c>
     </row>
     <row r="3">
@@ -19904,28 +19904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.0048737681262</v>
+        <v>420.0830809847729</v>
       </c>
       <c r="AB3" t="n">
-        <v>496.6792829343249</v>
+        <v>574.7762041609238</v>
       </c>
       <c r="AC3" t="n">
-        <v>449.276909264824</v>
+        <v>519.9203699392737</v>
       </c>
       <c r="AD3" t="n">
-        <v>363004.8737681262</v>
+        <v>420083.0809847729</v>
       </c>
       <c r="AE3" t="n">
-        <v>496679.2829343249</v>
+        <v>574776.2041609238</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.524920319860349e-06</v>
+        <v>3.769480547071328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.97200520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>449276.909264824</v>
+        <v>519920.3699392736</v>
       </c>
     </row>
     <row r="4">
@@ -20010,28 +20010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>317.7742995722056</v>
+        <v>366.6863751443722</v>
       </c>
       <c r="AB4" t="n">
-        <v>434.7928158873635</v>
+        <v>501.7164755336826</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.2967997746225</v>
+        <v>453.8333592722432</v>
       </c>
       <c r="AD4" t="n">
-        <v>317774.2995722056</v>
+        <v>366686.3751443722</v>
       </c>
       <c r="AE4" t="n">
-        <v>434792.8158873635</v>
+        <v>501716.4755336826</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.711071939504937e-06</v>
+        <v>4.047388290748128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>393296.7997746225</v>
+        <v>453833.3592722432</v>
       </c>
     </row>
     <row r="5">
@@ -20116,28 +20116,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>305.932563608716</v>
+        <v>362.9254299707911</v>
       </c>
       <c r="AB5" t="n">
-        <v>418.590430321597</v>
+        <v>496.5705844259982</v>
       </c>
       <c r="AC5" t="n">
-        <v>378.6407471470617</v>
+        <v>449.1785847895725</v>
       </c>
       <c r="AD5" t="n">
-        <v>305932.563608716</v>
+        <v>362925.4299707911</v>
       </c>
       <c r="AE5" t="n">
-        <v>418590.430321597</v>
+        <v>496570.5844259982</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.734617603827549e-06</v>
+        <v>4.082539864813194e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>378640.7471470617</v>
+        <v>449178.5847895725</v>
       </c>
     </row>
   </sheetData>
